--- a/wolf/Excel/Level_关卡表.xlsx
+++ b/wolf/Excel/Level_关卡表.xlsx
@@ -43,28 +43,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -130,13 +130,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
@@ -455,6 +455,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
@@ -463,16 +466,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" t="str">
         <v>Int</v>
       </c>
@@ -491,11 +507,11 @@
       <c r="F1" t="str">
         <v>String</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>String</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" t="str">
         <v>ID</v>
       </c>
@@ -514,11 +530,11 @@
       <c r="F2" t="str">
         <v>ImageGuid</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>PlayerSpeed</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" t="str">
         <v>序号</v>
       </c>
@@ -537,16 +553,16 @@
       <c r="F3" t="str">
         <v>关卡图片Guid</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>玩家移速</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="B4" t="str">
         <v>Language</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row customHeight="true" ht="23" r="5">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -556,18 +572,18 @@
       <c r="C5" t="str">
         <v>大厅</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="3" t="str">
         <v>PlayStart_Hall</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="3" t="str">
         <v>2C4F453B</v>
       </c>
       <c r="F5" t="str"/>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>350</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6">
         <v>10001</v>
       </c>
@@ -577,66 +593,66 @@
       <c r="C6" t="str">
         <v>湖边别墅</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="3" t="str">
         <v>PlayStart_Inside_001</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="3" t="str">
         <v>6A4B9B76</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>111775</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>350</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="1">
+    <row customHeight="true" ht="23" r="7">
+      <c r="A7" s="3">
         <v>10002</v>
       </c>
       <c r="B7" t="str">
         <v>Level_Name_10002</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="3" t="str">
         <v>林中庭院</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="3" t="str">
         <v>PlayStart_Inside_002</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="3" t="str">
         <v>10DBE474</v>
       </c>
       <c r="F7" s="4">
         <v>111774</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>350</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row customHeight="true" ht="23" r="8">
       <c r="A8">
         <v>10003</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>Level_Name_10003</v>
       </c>
-      <c r="C8" s="2" t="str">
-        <v>废弃医院</v>
-      </c>
-      <c r="D8" s="1" t="str">
+      <c r="C8" s="1" t="str">
+        <v>赛博之城</v>
+      </c>
+      <c r="D8" s="3" t="str">
         <v>PlayStart_Inside_003</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="3" t="str">
         <v>2683B3F2</v>
       </c>
-      <c r="F8" s="3">
-        <v>148628</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="2">
+        <v>54193</v>
+      </c>
+      <c r="G8" s="2">
         <v>430</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row customHeight="true" ht="23" r="9">
       <c r="A9" t="str"/>
       <c r="B9" t="str"/>
       <c r="C9" t="str"/>
@@ -644,7 +660,7 @@
       <c r="E9" t="str"/>
       <c r="F9" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row customHeight="true" ht="23" r="10">
       <c r="A10" t="str"/>
       <c r="B10" t="str"/>
       <c r="C10" t="str"/>
@@ -652,7 +668,7 @@
       <c r="E10" t="str"/>
       <c r="F10" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row customHeight="true" ht="23" r="11">
       <c r="A11" t="str"/>
       <c r="B11" t="str"/>
       <c r="C11" t="str"/>
@@ -660,7 +676,7 @@
       <c r="E11" t="str"/>
       <c r="F11" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row customHeight="true" ht="23" r="12">
       <c r="A12" t="str"/>
       <c r="B12" t="str"/>
       <c r="C12" t="str"/>
@@ -668,7 +684,7 @@
       <c r="E12" t="str"/>
       <c r="F12" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row customHeight="true" ht="23" r="13">
       <c r="A13" t="str"/>
       <c r="B13" t="str"/>
       <c r="C13" t="str"/>
@@ -676,7 +692,7 @@
       <c r="E13" t="str"/>
       <c r="F13" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row customHeight="true" ht="23" r="14">
       <c r="A14" t="str"/>
       <c r="B14" t="str"/>
       <c r="C14" t="str"/>
@@ -684,12 +700,12 @@
       <c r="E14" t="str"/>
       <c r="F14" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="15"/>
-    <row customHeight="true" ht="21" r="16"/>
-    <row customHeight="true" ht="21" r="17"/>
-    <row customHeight="true" ht="21" r="18"/>
-    <row customHeight="true" ht="21" r="19"/>
-    <row customHeight="true" ht="21" r="20"/>
+    <row customHeight="true" ht="23" r="15"/>
+    <row customHeight="true" ht="23" r="16"/>
+    <row customHeight="true" ht="23" r="17"/>
+    <row customHeight="true" ht="23" r="18"/>
+    <row customHeight="true" ht="23" r="19"/>
+    <row customHeight="true" ht="23" r="20"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/wolf/Excel/Level_关卡表.xlsx
+++ b/wolf/Excel/Level_关卡表.xlsx
@@ -43,28 +43,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -130,10 +130,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -455,6 +455,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
@@ -463,16 +466,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" t="str">
         <v>Int</v>
       </c>
@@ -491,11 +507,11 @@
       <c r="F1" t="str">
         <v>String</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>String</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" t="str">
         <v>ID</v>
       </c>
@@ -514,11 +530,11 @@
       <c r="F2" t="str">
         <v>ImageGuid</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>PlayerSpeed</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" t="str">
         <v>序号</v>
       </c>
@@ -537,16 +553,16 @@
       <c r="F3" t="str">
         <v>关卡图片Guid</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>玩家移速</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="B4" t="str">
         <v>Language</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row customHeight="true" ht="23" r="5">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -556,18 +572,18 @@
       <c r="C5" t="str">
         <v>大厅</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>PlayStart_Hall</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>2C4F453B</v>
       </c>
       <c r="F5" t="str"/>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>350</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6">
         <v>10001</v>
       </c>
@@ -577,66 +593,75 @@
       <c r="C6" t="str">
         <v>湖边别墅</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>PlayStart_Inside_001</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>6A4B9B76</v>
       </c>
       <c r="F6" s="3">
         <v>111775</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="1">
+      <c r="H6" s="3">
+        <v>111775</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="7">
+      <c r="A7" s="2">
         <v>10002</v>
       </c>
       <c r="B7" t="str">
         <v>Level_Name_10002</v>
       </c>
-      <c r="C7" s="1" t="str">
-        <v>林中庭院</v>
-      </c>
-      <c r="D7" s="1" t="str">
+      <c r="C7" s="2" t="str">
+        <v>芭比小镇</v>
+      </c>
+      <c r="D7" s="2" t="str">
         <v>PlayStart_Inside_002</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>10DBE474</v>
       </c>
       <c r="F7" s="4">
+        <v>472609</v>
+      </c>
+      <c r="G7" s="1">
+        <v>350</v>
+      </c>
+      <c r="H7" s="4">
         <v>111774</v>
       </c>
-      <c r="G7" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="8">
+    </row>
+    <row customHeight="true" ht="23" r="8">
       <c r="A8">
         <v>10003</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>Level_Name_10003</v>
       </c>
-      <c r="C8" s="2" t="str">
-        <v>废弃医院</v>
-      </c>
-      <c r="D8" s="1" t="str">
+      <c r="C8" s="1" t="str">
+        <v>泳池派对</v>
+      </c>
+      <c r="D8" s="2" t="str">
         <v>PlayStart_Inside_003</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
         <v>2683B3F2</v>
       </c>
       <c r="F8" s="3">
-        <v>148628</v>
+        <v>472633</v>
       </c>
       <c r="G8" s="3">
         <v>430</v>
       </c>
-    </row>
-    <row customHeight="true" ht="21" r="9">
+      <c r="H8" s="3">
+        <v>148628</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="9">
       <c r="A9" t="str"/>
       <c r="B9" t="str"/>
       <c r="C9" t="str"/>
@@ -644,7 +669,7 @@
       <c r="E9" t="str"/>
       <c r="F9" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row customHeight="true" ht="23" r="10">
       <c r="A10" t="str"/>
       <c r="B10" t="str"/>
       <c r="C10" t="str"/>
@@ -652,7 +677,7 @@
       <c r="E10" t="str"/>
       <c r="F10" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row customHeight="true" ht="23" r="11">
       <c r="A11" t="str"/>
       <c r="B11" t="str"/>
       <c r="C11" t="str"/>
@@ -660,7 +685,7 @@
       <c r="E11" t="str"/>
       <c r="F11" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row customHeight="true" ht="23" r="12">
       <c r="A12" t="str"/>
       <c r="B12" t="str"/>
       <c r="C12" t="str"/>
@@ -668,7 +693,7 @@
       <c r="E12" t="str"/>
       <c r="F12" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row customHeight="true" ht="23" r="13">
       <c r="A13" t="str"/>
       <c r="B13" t="str"/>
       <c r="C13" t="str"/>
@@ -676,7 +701,7 @@
       <c r="E13" t="str"/>
       <c r="F13" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row customHeight="true" ht="23" r="14">
       <c r="A14" t="str"/>
       <c r="B14" t="str"/>
       <c r="C14" t="str"/>
@@ -684,12 +709,12 @@
       <c r="E14" t="str"/>
       <c r="F14" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="15"/>
-    <row customHeight="true" ht="21" r="16"/>
-    <row customHeight="true" ht="21" r="17"/>
-    <row customHeight="true" ht="21" r="18"/>
-    <row customHeight="true" ht="21" r="19"/>
-    <row customHeight="true" ht="21" r="20"/>
+    <row customHeight="true" ht="23" r="15"/>
+    <row customHeight="true" ht="23" r="16"/>
+    <row customHeight="true" ht="23" r="17"/>
+    <row customHeight="true" ht="23" r="18"/>
+    <row customHeight="true" ht="23" r="19"/>
+    <row customHeight="true" ht="23" r="20"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/wolf/Excel/Level_关卡表.xlsx
+++ b/wolf/Excel/Level_关卡表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -70,6 +70,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -85,7 +92,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -125,21 +139,24 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,7 +524,7 @@
       <c r="F1" t="str">
         <v>String</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>String</v>
       </c>
     </row>
@@ -530,7 +547,7 @@
       <c r="F2" t="str">
         <v>ImageGuid</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>PlayerSpeed</v>
       </c>
     </row>
@@ -553,7 +570,7 @@
       <c r="F3" t="str">
         <v>关卡图片Guid</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>玩家移速</v>
       </c>
     </row>
@@ -572,14 +589,14 @@
       <c r="C5" t="str">
         <v>大厅</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>PlayStart_Hall</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>2C4F453B</v>
       </c>
       <c r="F5" t="str"/>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>350</v>
       </c>
     </row>
@@ -590,48 +607,48 @@
       <c r="B6" t="str">
         <v>Level_Name_10001</v>
       </c>
-      <c r="C6" t="str">
-        <v>湖边别墅</v>
-      </c>
-      <c r="D6" s="2" t="str">
+      <c r="C6" s="5" t="str">
+        <v>夜色酒吧</v>
+      </c>
+      <c r="D6" s="1" t="str">
         <v>PlayStart_Inside_001</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>6A4B9B76</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
+        <v>292222</v>
+      </c>
+      <c r="G6" s="2">
+        <v>350</v>
+      </c>
+      <c r="H6" s="4">
         <v>111775</v>
       </c>
-      <c r="G6" s="1">
-        <v>350</v>
-      </c>
-      <c r="H6" s="3">
-        <v>111775</v>
-      </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>10002</v>
       </c>
       <c r="B7" t="str">
         <v>Level_Name_10002</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>芭比小镇</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>PlayStart_Inside_002</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>10DBE474</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>472609</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>350</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>111774</v>
       </c>
     </row>
@@ -639,25 +656,25 @@
       <c r="A8">
         <v>10003</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>Level_Name_10003</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>泳池派对</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>PlayStart_Inside_003</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <v>2683B3F2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>472633</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>430</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>148628</v>
       </c>
     </row>

--- a/wolf/Excel/Level_关卡表.xlsx
+++ b/wolf/Excel/Level_关卡表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -50,14 +50,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -92,7 +85,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -139,23 +146,29 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -524,7 +537,7 @@
       <c r="F1" t="str">
         <v>String</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>String</v>
       </c>
     </row>
@@ -547,7 +560,7 @@
       <c r="F2" t="str">
         <v>ImageGuid</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>PlayerSpeed</v>
       </c>
     </row>
@@ -570,7 +583,7 @@
       <c r="F3" t="str">
         <v>关卡图片Guid</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>玩家移速</v>
       </c>
     </row>
@@ -589,14 +602,14 @@
       <c r="C5" t="str">
         <v>大厅</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>PlayStart_Hall</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>2C4F453B</v>
       </c>
       <c r="F5" t="str"/>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>350</v>
       </c>
     </row>
@@ -604,78 +617,87 @@
       <c r="A6">
         <v>10001</v>
       </c>
-      <c r="B6" t="str">
-        <v>Level_Name_10001</v>
-      </c>
-      <c r="C6" s="5" t="str">
-        <v>夜色酒吧</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <v>PlayStart_Inside_001</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <v>6A4B9B76</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="B6" s="6" t="str">
+        <v>Level_Name_10004</v>
+      </c>
+      <c r="C6" s="7" t="str">
+        <v>恐怖校园</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <v>校园出生点</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <v>05D3FB23</v>
+      </c>
+      <c r="F6" s="5">
         <v>292222</v>
       </c>
-      <c r="G6" s="2">
-        <v>350</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="5">
+        <v>430</v>
+      </c>
+      <c r="H6" s="5">
         <v>111775</v>
       </c>
+      <c r="I6" s="5">
+        <v>292222</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>10002</v>
       </c>
-      <c r="B7" t="str">
-        <v>Level_Name_10002</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <v>芭比小镇</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <v>PlayStart_Inside_002</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <v>10DBE474</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="B7" s="6" t="str">
+        <v>Level_Name_10004</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <v>恐怖校园</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <v>校园出生点</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <v>05D3FB23</v>
+      </c>
+      <c r="F7" s="4">
         <v>472609</v>
       </c>
-      <c r="G7" s="2">
-        <v>350</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="5">
+        <v>430</v>
+      </c>
+      <c r="H7" s="4">
         <v>111774</v>
+      </c>
+      <c r="I7" s="4">
+        <v>472609</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="8">
       <c r="A8">
         <v>10003</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>Level_Name_10003</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <v>泳池派对</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <v>PlayStart_Inside_003</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <v>2683B3F2</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="B8" s="1" t="str">
+        <v>Level_Name_10004</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <v>恐怖校园</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <v>校园出生点</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <v>05D3FB23</v>
+      </c>
+      <c r="F8" s="5">
         <v>472633</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>430</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>148628</v>
+      </c>
+      <c r="I8" s="5">
+        <v>472633</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="9">

--- a/wolf/Excel/Level_关卡表.xlsx
+++ b/wolf/Excel/Level_关卡表.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView windowWidth="23040" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,53 +27,486 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>BirthName</t>
+  </si>
+  <si>
+    <t>BirthPoint</t>
+  </si>
+  <si>
+    <t>ImageGuid</t>
+  </si>
+  <si>
+    <t>PlayerSpeed</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>关卡名称</t>
+  </si>
+  <si>
+    <t>标注</t>
+  </si>
+  <si>
+    <t>出生点名称</t>
+  </si>
+  <si>
+    <t>出生点GUID</t>
+  </si>
+  <si>
+    <t>关卡图片Guid</t>
+  </si>
+  <si>
+    <t>玩家移速</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Level_Name_10000</t>
+  </si>
+  <si>
+    <t>大厅</t>
+  </si>
+  <si>
+    <t>PlayStart_Hall</t>
+  </si>
+  <si>
+    <t>2C4F453B</t>
+  </si>
+  <si>
+    <t>Level_Name_10001</t>
+  </si>
+  <si>
+    <t>夜色酒吧</t>
+  </si>
+  <si>
+    <t>PlayStart_Inside_001</t>
+  </si>
+  <si>
+    <t>6A4B9B76</t>
+  </si>
+  <si>
+    <t>Level_Name_10002</t>
+  </si>
+  <si>
+    <t>樱花咖啡馆</t>
+  </si>
+  <si>
+    <t>PlayStart_Inside_002</t>
+  </si>
+  <si>
+    <t>10DBE474</t>
+  </si>
+  <si>
+    <t>Level_Name_10003</t>
+  </si>
+  <si>
+    <t>泳池派对</t>
+  </si>
+  <si>
+    <t>PlayStart_Inside_003</t>
+  </si>
+  <si>
+    <t>05A7AE9D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -80,55 +515,320 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -177,7 +877,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -210,26 +910,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -262,23 +945,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,123 +1086,103 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="7" width="16" customWidth="1"/>
+    <col min="8" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="1" t="str">
-        <v>Int</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>String</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>String</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>String</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>String</v>
-      </c>
-      <c r="F1" s="1" t="str">
-        <v>String</v>
-      </c>
-      <c r="G1" s="2" t="str">
-        <v>String</v>
+    <row r="1" ht="23" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>Remark</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>BirthName</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>BirthPoint</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <v>ImageGuid</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <v>PlayerSpeed</v>
+    <row r="2" ht="23" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="1" t="str">
-        <v>序号</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>关卡名称</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>标注</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>出生点名称</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>出生点GUID</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <v>关卡图片Guid</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <v>玩家移速</v>
+    <row r="3" ht="23" customHeight="1" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="4">
+    <row r="4" ht="23" customHeight="1" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="str">
-        <v>Language</v>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -544,42 +1190,42 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="5">
+    <row r="5" ht="23" customHeight="1" spans="1:7">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <v>Level_Name_10000</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v>大厅</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <v>PlayStart_Hall</v>
-      </c>
-      <c r="E5" s="3" t="str">
-        <v>2C4F453B</v>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2">
         <v>350</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="6">
+    <row r="6" ht="23" customHeight="1" spans="1:7">
       <c r="A6" s="1">
         <v>10001</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <v>Level_Name_10001</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <v>夜色酒吧</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <v>PlayStart_Inside_001</v>
-      </c>
-      <c r="E6" s="3" t="str">
-        <v>6A4B9B76</v>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F6" s="2">
         <v>111775</v>
@@ -588,21 +1234,21 @@
         <v>350</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="7">
+    <row r="7" ht="23" customHeight="1" spans="1:7">
       <c r="A7" s="3">
         <v>10002</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <v>Level_Name_10002</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <v>樱花咖啡馆</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <v>PlayStart_Inside_002</v>
-      </c>
-      <c r="E7" s="3" t="str">
-        <v>10DBE474</v>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F7" s="2">
         <v>292222</v>
@@ -611,21 +1257,21 @@
         <v>350</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="8">
+    <row r="8" ht="23" customHeight="1" spans="1:7">
       <c r="A8" s="1">
         <v>10003</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>Level_Name_10003</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <v>泳池派对</v>
-      </c>
-      <c r="D8" s="3" t="str">
-        <v>PlayStart_Inside_003</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <v>05A7AE9D</v>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="2">
         <v>111774</v>
@@ -634,7 +1280,7 @@
         <v>430</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="9">
+    <row r="9" ht="23" customHeight="1" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -643,7 +1289,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="10">
+    <row r="10" ht="23" customHeight="1" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -652,7 +1298,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="11">
+    <row r="11" ht="23" customHeight="1" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -661,7 +1307,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="12">
+    <row r="12" ht="23" customHeight="1" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -670,7 +1316,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="13">
+    <row r="13" ht="23" customHeight="1" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -679,7 +1325,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="14">
+    <row r="14" ht="23" customHeight="1" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -688,13 +1334,14 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="15"/>
-    <row customHeight="true" ht="23" r="16"/>
-    <row customHeight="true" ht="23" r="17"/>
-    <row customHeight="true" ht="23" r="18"/>
-    <row customHeight="true" ht="23" r="19"/>
-    <row customHeight="true" ht="23" r="20"/>
+    <row r="15" ht="23" customHeight="1"/>
+    <row r="16" ht="23" customHeight="1"/>
+    <row r="17" ht="23" customHeight="1"/>
+    <row r="18" ht="23" customHeight="1"/>
+    <row r="19" ht="23" customHeight="1"/>
+    <row r="20" ht="23" customHeight="1"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/wolf/Excel/Level_关卡表.xlsx
+++ b/wolf/Excel/Level_关卡表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Int</t>
   </si>
@@ -113,9 +113,6 @@
     <t>PlayStart_Inside_002</t>
   </si>
   <si>
-    <t>10DBE474</t>
-  </si>
-  <si>
     <t>Level_Name_10003</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
   </si>
   <si>
     <t>PlayStart_Inside_003</t>
-  </si>
-  <si>
-    <t>05A7AE9D</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1091,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1248,7 +1242,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>292222</v>
@@ -1262,16 +1256,16 @@
         <v>10003</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>111774</v>

--- a/wolf/Excel/Level_关卡表.xlsx
+++ b/wolf/Excel/Level_关卡表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Int</t>
   </si>
@@ -77,10 +77,7 @@
     <t>玩家移速</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Level_Name_10000</t>
+    <t>水上乐园</t>
   </si>
   <si>
     <t>大厅</t>
@@ -92,9 +89,6 @@
     <t>2C4F453B</t>
   </si>
   <si>
-    <t>Level_Name_10001</t>
-  </si>
-  <si>
     <t>夜色酒吧</t>
   </si>
   <si>
@@ -104,16 +98,10 @@
     <t>6A4B9B76</t>
   </si>
   <si>
-    <t>Level_Name_10002</t>
-  </si>
-  <si>
     <t>樱花咖啡馆</t>
   </si>
   <si>
     <t>PlayStart_Inside_002</t>
-  </si>
-  <si>
-    <t>Level_Name_10003</t>
   </si>
   <si>
     <t>泳池派对</t>
@@ -1091,7 +1079,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1175,9 +1163,7 @@
     </row>
     <row r="4" ht="23" customHeight="1" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1189,16 +1175,16 @@
         <v>10000</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2">
@@ -1210,19 +1196,19 @@
         <v>10001</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F6" s="2">
-        <v>111775</v>
+        <v>292240</v>
       </c>
       <c r="G6" s="2">
         <v>350</v>
@@ -1233,19 +1219,19 @@
         <v>10002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
-        <v>292222</v>
+        <v>292241</v>
       </c>
       <c r="G7" s="2">
         <v>350</v>
@@ -1256,19 +1242,19 @@
         <v>10003</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F8" s="2">
-        <v>111774</v>
+        <v>292252</v>
       </c>
       <c r="G8" s="2">
         <v>430</v>

--- a/wolf/Excel/Level_关卡表.xlsx
+++ b/wolf/Excel/Level_关卡表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9015"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Int</t>
   </si>
@@ -77,7 +77,10 @@
     <t>玩家移速</t>
   </si>
   <si>
-    <t>水上乐园</t>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Level_Name_10000</t>
   </si>
   <si>
     <t>大厅</t>
@@ -89,7 +92,10 @@
     <t>2C4F453B</t>
   </si>
   <si>
-    <t>夜色酒吧</t>
+    <t>Level_Name_10001</t>
+  </si>
+  <si>
+    <t>邮轮之旅</t>
   </si>
   <si>
     <t>PlayStart_Inside_001</t>
@@ -98,16 +104,28 @@
     <t>6A4B9B76</t>
   </si>
   <si>
+    <t>Level_Name_10002</t>
+  </si>
+  <si>
     <t>樱花咖啡馆</t>
   </si>
   <si>
     <t>PlayStart_Inside_002</t>
   </si>
   <si>
-    <t>泳池派对</t>
+    <t>10DBE474</t>
+  </si>
+  <si>
+    <t>Level_Name_10003</t>
+  </si>
+  <si>
+    <t>运输船</t>
   </si>
   <si>
     <t>PlayStart_Inside_003</t>
+  </si>
+  <si>
+    <t>05A7AE9D</t>
   </si>
 </sst>
 </file>
@@ -120,7 +138,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -141,6 +159,24 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF303133"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -488,12 +524,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,31 +648,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,119 +669,131 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -752,9 +803,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1079,7 +1137,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1163,7 +1221,9 @@
     </row>
     <row r="4" ht="23" customHeight="1" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1174,17 +1234,17 @@
       <c r="A5" s="1">
         <v>10000</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2">
@@ -1195,43 +1255,43 @@
       <c r="A6" s="1">
         <v>10001</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" s="2">
-        <v>292240</v>
+        <v>292241</v>
       </c>
       <c r="G6" s="2">
         <v>350</v>
       </c>
     </row>
     <row r="7" ht="23" customHeight="1" spans="1:7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>10002</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F7" s="2">
-        <v>292241</v>
+        <v>292222</v>
       </c>
       <c r="G7" s="2">
         <v>350</v>
@@ -1241,20 +1301,20 @@
       <c r="A8" s="1">
         <v>10003</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2">
-        <v>292252</v>
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6">
+        <v>563372</v>
       </c>
       <c r="G8" s="2">
         <v>430</v>
